--- a/Estudio-FG/ataques_sin_detecciones_FG.xlsx
+++ b/Estudio-FG/ataques_sin_detecciones_FG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4EE3688-9464-4AC4-A1CE-39A983A751A6}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECC482C-183D-4A0C-ADE7-CE5E99432806}"/>
   <bookViews>
     <workbookView xWindow="9680" yWindow="700" windowWidth="27720" windowHeight="19630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="149">
   <si>
     <t>Fichero PCAP</t>
   </si>
@@ -429,6 +429,60 @@
   </si>
   <si>
     <t>La/s alerta/s generadas hacen referencia a ataques colaterales, no al ataque principal</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo detecta el uso de SSH, siendo insuficiente</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones no detecta el uso del protocolo falso TLS</t>
+  </si>
+  <si>
+    <t>Las alertas de control de aplicaciones sólo muestran los protocolos usados, pero no indagan en la ejecución del script de duplicado</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo indica el uso de FTP</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo indica el uso de SMB o funciones de compartición de archivos. No es suficiente para determinar que se está recogiendo información de usuarios del sistema</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo detecta el uso de Ping</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo detecta el uso de FTP</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones no marca el uso de la funcionalidad de registro remoto</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones no marca el acceso a la VPN</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones no marca el uso de una extensión, sino el uso de un navegador. No se puede determinar como válida</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo marca la funcionalidad de compartición de archivos, nada más</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo marca el uso del navegador y las peticiones HTTP</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo marca el uso de RDP, nada más</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo marca el uso de SSH</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo marca el uso deL navegador Firefox</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo marca el uso de Github, pero no es suficiente para detectar el ataque</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo detecta navegadores y otros</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones detecta el uso de Kerberos y LDAP, pero no indica nada de un acceso a los dominios de confianza</t>
   </si>
 </sst>
 </file>
@@ -805,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,6 +948,9 @@
       <c r="K2" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="L2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -928,6 +985,9 @@
       <c r="K3" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="L3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1033,6 +1093,9 @@
       <c r="K6" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="L6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1104,6 +1167,9 @@
       <c r="K8" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1138,6 +1204,9 @@
       <c r="K9" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="L9" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1416,6 +1485,9 @@
       <c r="K17" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="L17" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -1450,6 +1522,9 @@
       <c r="K18" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="L18" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -1839,6 +1914,9 @@
       <c r="K29" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="L29" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -1941,8 +2019,11 @@
       <c r="K32" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1975,8 +2056,11 @@
       <c r="K33" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -2009,8 +2093,11 @@
       <c r="K34" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2043,8 +2130,11 @@
       <c r="K35" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2077,8 +2167,11 @@
       <c r="K36" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2112,7 +2205,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2146,7 +2239,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2179,8 +2272,11 @@
       <c r="K39" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2214,7 +2310,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2248,7 +2344,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2281,8 +2377,11 @@
       <c r="K42" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -2315,8 +2414,11 @@
       <c r="K43" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2352,8 +2454,11 @@
       <c r="K44" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2386,8 +2491,11 @@
       <c r="K45" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2420,8 +2528,11 @@
       <c r="K46" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2454,8 +2565,11 @@
       <c r="K47" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
